--- a/excels/Campañas/Trad BGDIA.xlsx
+++ b/excels/Campañas/Trad BGDIA.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rol\Roll20\Repos github\5etoolsEsp\excels\Campañas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B91B5A8-DCE7-42D7-A7F7-925BCBB18DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529B4A8B-469A-48A4-B3D2-4426AC45A557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vehicle" sheetId="5" r:id="rId1"/>
     <sheet name="vehicleUpgrade" sheetId="6" r:id="rId2"/>
+    <sheet name="hazard" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>name Español: BGDIA-ES</t>
   </si>
@@ -66,6 +67,9 @@
   </si>
   <si>
     <t>Teleporter</t>
+  </si>
+  <si>
+    <t>Demon Ichor</t>
   </si>
 </sst>
 </file>
@@ -499,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4549F9-5B2F-4509-800C-BFD132006F04}">
   <dimension ref="B1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,4 +569,36 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853DB978-F6E5-4CB2-AA5F-A14823DA7692}">
+  <dimension ref="B1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>